--- a/hw_optimizing/record.xlsx
+++ b/hw_optimizing/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Course\algo trading\project\MATH585_final_project\hw_optimizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B88FC5-9C86-4CB2-B6C8-1824A7073681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57A202F-899A-4A8B-A602-E9F38A2C9F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="40">
   <si>
     <t>策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,38 @@
   </si>
   <si>
     <t>动量ADX(14)指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有（进场&gt;20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有（进场&gt;25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010.1.1-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000.1.1-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5x(Mom) 2x(Pairs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,10 +541,11 @@
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="10" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,10 +583,13 @@
         <v>31</v>
       </c>
       <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -575,11 +611,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -598,11 +634,11 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -624,11 +660,11 @@
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -647,11 +683,11 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -682,11 +718,11 @@
       <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -714,11 +750,11 @@
       <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -746,11 +782,11 @@
       <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -778,11 +814,11 @@
       <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="M10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -810,11 +846,11 @@
       <c r="J11" t="s">
         <v>11</v>
       </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -842,11 +878,11 @@
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -875,11 +911,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -908,11 +945,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -940,11 +978,11 @@
       <c r="J15" t="s">
         <v>10</v>
       </c>
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -975,11 +1013,12 @@
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1007,11 +1046,11 @@
       <c r="J17" t="s">
         <v>10</v>
       </c>
-      <c r="M17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1042,11 +1081,11 @@
       <c r="K18" t="s">
         <v>10</v>
       </c>
-      <c r="M18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1077,11 +1116,11 @@
       <c r="K19" t="s">
         <v>10</v>
       </c>
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1114,11 +1153,12 @@
         <v>10</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -1153,11 +1193,12 @@
         <v>10</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1191,11 +1232,11 @@
       <c r="K22" t="s">
         <v>10</v>
       </c>
-      <c r="M22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1206,13 +1247,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.63100000000000001</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="F23" s="1">
-        <v>0.11700000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.1231</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="H23" t="s">
         <v>10</v>
@@ -1227,10 +1268,381 @@
         <v>10</v>
       </c>
       <c r="L23" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>120</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>0.74</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>120</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.1847</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.151</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
+        <v>120</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.159</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>120</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>120</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>120</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>0.75</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.1542</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>120</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.1852</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>120</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.154</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.2064</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4">
+        <v>120</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
